--- a/data/trans_dic/P1423-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1423-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,09</t>
+          <t>1,18; 3,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,11</t>
+          <t>1,42; 4,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,62</t>
+          <t>1,32; 4,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 6,48</t>
+          <t>2,98; 6,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 7,95</t>
+          <t>3,04; 7,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,12</t>
+          <t>2,56; 8,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,84</t>
+          <t>2,96; 8,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,31</t>
+          <t>5,76; 9,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,79</t>
+          <t>2,24; 4,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,3</t>
+          <t>2,25; 5,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,34</t>
+          <t>2,36; 5,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 7,56</t>
+          <t>4,86; 7,62</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,21</t>
+          <t>1,09; 4,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,93</t>
+          <t>1,68; 5,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,3</t>
+          <t>1,06; 4,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,24</t>
+          <t>3,98; 8,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 8,77</t>
+          <t>3,76; 8,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,61</t>
+          <t>3,33; 8,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,69</t>
+          <t>2,48; 7,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,64; 13,5</t>
+          <t>7,81; 13,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,81</t>
+          <t>2,77; 5,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 6,29</t>
+          <t>2,88; 6,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,93</t>
+          <t>2,15; 4,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 10,02</t>
+          <t>6,21; 9,72</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,53</t>
+          <t>2,33; 5,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,99</t>
+          <t>4,9; 9,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,86</t>
+          <t>2,42; 6,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 8,31</t>
+          <t>1,63; 8,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,33; 16,48</t>
+          <t>6,22; 16,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,95; 19,63</t>
+          <t>10,45; 19,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,81; 20,72</t>
+          <t>9,03; 20,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,87; 18,13</t>
+          <t>9,91; 17,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,46</t>
+          <t>3,67; 7,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,21</t>
+          <t>7,21; 11,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,55</t>
+          <t>4,53; 8,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 9,84</t>
+          <t>2,66; 9,89</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,13</t>
+          <t>2,21; 4,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 6,35</t>
+          <t>3,57; 6,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,77</t>
+          <t>2,47; 4,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,51</t>
+          <t>4,69; 7,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,26; 10,35</t>
+          <t>6,14; 10,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,78; 13,19</t>
+          <t>8,54; 13,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 10,64</t>
+          <t>6,72; 10,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 12,13</t>
+          <t>4,43; 12,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,01</t>
+          <t>4,1; 6,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,03; 8,46</t>
+          <t>6,12; 8,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 6,8</t>
+          <t>4,67; 6,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,81</t>
+          <t>5,4; 8,86</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 7,18</t>
+          <t>2,73; 7,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 5,18</t>
+          <t>2,08; 5,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,98</t>
+          <t>2,75; 5,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 10,47</t>
+          <t>5,67; 10,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 11,95</t>
+          <t>7,08; 11,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,49; 17,9</t>
+          <t>12,44; 17,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,77; 17,83</t>
+          <t>12,74; 18,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,01; 17,55</t>
+          <t>10,83; 17,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,31</t>
+          <t>5,73; 9,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,65; 12,08</t>
+          <t>8,61; 12,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,61; 11,81</t>
+          <t>8,54; 12,02</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,04; 14,21</t>
+          <t>10,08; 14,12</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,88</t>
+          <t>1,1; 4,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,44</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,36</t>
+          <t>0,33; 3,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,44; 11,02</t>
+          <t>2,56; 11,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,85; 8,78</t>
+          <t>5,94; 8,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,41; 14,45</t>
+          <t>10,55; 14,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,63; 13,46</t>
+          <t>9,34; 13,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,55</t>
+          <t>10,45; 14,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,68</t>
+          <t>5,11; 7,62</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,54; 11,69</t>
+          <t>8,59; 11,78</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,84; 11,03</t>
+          <t>7,81; 11,04</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,96; 13,0</t>
+          <t>9,11; 12,71</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,82</t>
+          <t>2,55; 3,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,43; 4,96</t>
+          <t>3,43; 4,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,72; 3,97</t>
+          <t>2,7; 3,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,36; 6,63</t>
+          <t>4,32; 6,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,74; 8,48</t>
+          <t>6,63; 8,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,4; 12,61</t>
+          <t>10,35; 12,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,19; 11,24</t>
+          <t>9,11; 11,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,49; 12,58</t>
+          <t>9,35; 12,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,82; 5,94</t>
+          <t>4,83; 5,95</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,19; 8,52</t>
+          <t>7,11; 8,52</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,21; 7,49</t>
+          <t>6,18; 7,49</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,39; 9,39</t>
+          <t>7,34; 9,41</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10666</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12133</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10973</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>23037</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15522</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15073</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17036</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>34847</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>26189</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>27206</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28009</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>57883</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5599; 18385</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6215; 21105</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5674; 20077</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15079; 33846</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9330; 24308</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8064; 25895</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10280; 28613</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>25765; 44478</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17490; 37748</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16920; 40938</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18345; 41094</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>46313; 72593</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8057</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13232</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8500</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>25994</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>22095</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>19105</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16054</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>38878</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30152</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>32336</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>24554</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>64871</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4018; 15930</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7029; 23998</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3989; 15722</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18015; 37011</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13988; 32571</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11258; 29641</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9235; 26070</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>29892; 51923</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20430; 42424</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>21766; 46975</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>16101; 35532</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>51819; 81131</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19942</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>42009</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20969</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>32366</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17598</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>37927</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>22613</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22054</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>37540</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>79936</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>43582</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>54419</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12657; 30917</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>30836; 57619</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12647; 31417</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10881; 56281</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10432; 26840</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>27194; 49921</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15002; 34168</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16534; 29265</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26042; 50879</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>64158; 100314</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>31143; 57982</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22193; 82560</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>39074</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>54399</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>40132</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>61257</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>57597</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>83441</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>71121</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>89550</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>96671</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>137840</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>111253</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>150807</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>27365; 52087</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>41344; 73479</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>28407; 53891</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>48568; 78074</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>43892; 73833</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>65270; 101637</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>55480; 90041</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>43312; 119230</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>80121; 118040</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>117681; 163785</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>92195; 132723</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>108655; 178270</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16391</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17064</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>25974</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>36327</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>52445</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>113455</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>111395</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>126106</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>68836</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>130520</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>137369</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>162433</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9574; 25653</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10637; 26217</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17039; 36579</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26936; 49241</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>40291; 68186</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>94576; 133570</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>94042; 133665</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>91151; 147836</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>52675; 86195</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>109402; 153910</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>115999; 163286</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>132700; 185939</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7244</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1833</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4021</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>13299</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>90792</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>136602</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>122977</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>94052</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>98035</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>138434</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>126998</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>107350</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3290; 14441</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5995</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>954; 9181</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6167; 27472</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>74170; 111553</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>117037; 162148</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>101030; 144577</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>79591; 112735</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>79043; 117838</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>118187; 162120</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>106959; 151134</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>91257; 127364</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>101374</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>140670</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>110570</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>192278</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>256049</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>405603</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>361195</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>405486</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>357422</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>546273</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>471765</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>597764</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>83536; 122928</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>117353; 168315</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>91575; 133619</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>145780; 224933</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>223911; 283791</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>367185; 442653</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>321787; 401676</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>334593; 446955</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>321391; 395583</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>495732; 593642</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>427812; 518275</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>510437; 654685</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P1423-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1423-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
